--- a/autoast/2_quick_jobs.xlsx
+++ b/autoast/2_quick_jobs.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\Scripts\ast\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ast_config" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="ast_config"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>region</t>
   </si>
@@ -60,35 +55,33 @@
     <t>ast_condition</t>
   </si>
   <si>
+    <t>file_number</t>
+  </si>
+  <si>
     <t>Northeast</t>
   </si>
   <si>
+    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876367\876367_300m_buffer.shp</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
-  </si>
-  <si>
-    <t>file_number</t>
-  </si>
-  <si>
-    <t>T:\job1</t>
-  </si>
-  <si>
-    <t>T:\job2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +90,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +111,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -122,27 +127,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -194,69 +219,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,54 +307,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -337,7 +363,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -346,7 +372,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -363,10 +389,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -395,7 +421,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,13 +434,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -433,149 +458,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="180.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="167.140625" customWidth="1"/>
-    <col min="7" max="7" width="39" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="180.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="167.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="39.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4">
+        <v>876372</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>876372</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4">
         <v>876367</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/autoast/2_quick_jobs.xlsx
+++ b/autoast/2_quick_jobs.xlsx
@@ -1,111 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ast_config"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ast_config" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>feature_layer</t>
-  </si>
-  <si>
-    <t>crown_file_number</t>
-  </si>
-  <si>
-    <t>disposition_number</t>
-  </si>
-  <si>
-    <t>parcel_number</t>
-  </si>
-  <si>
-    <t>output_directory</t>
-  </si>
-  <si>
-    <t>output_directory_same_as_input</t>
-  </si>
-  <si>
-    <t>dont_overwrite_outputs</t>
-  </si>
-  <si>
-    <t>skip_conflicts_and_constraints</t>
-  </si>
-  <si>
-    <t>suppress_map_creation</t>
-  </si>
-  <si>
-    <t>add_maps_to_current</t>
-  </si>
-  <si>
-    <t>run_as_fcbc</t>
-  </si>
-  <si>
-    <t>ast_condition</t>
-  </si>
-  <si>
-    <t>file_number</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876367\876367_300m_buffer.shp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,48 +63,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,240 +457,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="180.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="167.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="39.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="180.1478571428571" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="17.005" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="167.1478571428571" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="39.005" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="25.86214285714286" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="32.005" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="8" min="11" max="11"/>
+    <col width="20.43357142857143" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="8" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4"/>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>feature_layer</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>crown_file_number</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>disposition_number</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>parcel_number</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>output_directory</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>output_directory_same_as_input</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>dont_overwrite_outputs</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>skip_conflicts_and_constraints</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>suppress_map_creation</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>add_maps_to_current</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>run_as_fcbc</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>ast_condition</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>file_number</t>
+        </is>
+      </c>
+      <c r="O1" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>876372</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876367\876367_300m_buffer.shp</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>876367</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="10" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="9" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="8" t="n"/>
+      <c r="M4" s="8" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="8" t="n"/>
+      <c r="M5" s="8" t="n"/>
+      <c r="N5" s="10" t="n"/>
+      <c r="O5" s="10" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="8" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="8" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="10" t="n"/>
+      <c r="O6" s="10" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="10" t="n"/>
+      <c r="O7" s="10" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/autoast/2_quick_jobs.xlsx
+++ b/autoast/2_quick_jobs.xlsx
@@ -1,111 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ast_config"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ast_config" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>feature_layer</t>
-  </si>
-  <si>
-    <t>crown_file_number</t>
-  </si>
-  <si>
-    <t>disposition_number</t>
-  </si>
-  <si>
-    <t>parcel_number</t>
-  </si>
-  <si>
-    <t>output_directory</t>
-  </si>
-  <si>
-    <t>output_directory_same_as_input</t>
-  </si>
-  <si>
-    <t>dont_overwrite_outputs</t>
-  </si>
-  <si>
-    <t>skip_conflicts_and_constraints</t>
-  </si>
-  <si>
-    <t>suppress_map_creation</t>
-  </si>
-  <si>
-    <t>add_maps_to_current</t>
-  </si>
-  <si>
-    <t>run_as_fcbc</t>
-  </si>
-  <si>
-    <t>ast_condition</t>
-  </si>
-  <si>
-    <t>file_number</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876367\876367_300m_buffer.shp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,48 +63,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,236 +457,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="180.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="167.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="39.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="18.29071428571428" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="180.1478571428571" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="17.005" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="167.1478571428571" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="39.005" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="25.86214285714286" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="32.005" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
+    <col width="25.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="8" min="11" max="11"/>
+    <col width="20.43357142857143" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="8" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="14" max="14"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4"/>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>feature_layer</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>crown_file_number</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>disposition_number</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>parcel_number</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>output_directory</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>output_directory_same_as_input</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>dont_overwrite_outputs</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>skip_conflicts_and_constraints</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>suppress_map_creation</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>add_maps_to_current</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>run_as_fcbc</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>ast_condition</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>file_number</t>
+        </is>
+      </c>
+      <c r="O1" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="4">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876372_v2\ChiefsCabinCreek_50m_buffer.shp</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>876372</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="4">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\FwToolOutputJuly23\876367\876367_300m_buffer.shp</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>876367</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="8" t="n"/>
+      <c r="M4" s="8" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="n"/>
+      <c r="L5" s="8" t="n"/>
+      <c r="M5" s="8" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="8" t="n"/>
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+      <c r="K6" s="8" t="n"/>
+      <c r="L6" s="8" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+      <c r="K7" s="8" t="n"/>
+      <c r="L7" s="8" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="4" t="n"/>
+      <c r="O7" s="4" t="n"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="8" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="4" t="n"/>
+      <c r="O8" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
